--- a/myworkplace/output1.xlsx
+++ b/myworkplace/output1.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaoyun\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pornchaichaweewat/Documents/GitHub/peacovid19v2/myworkplace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6AB076-E009-42DA-AF18-38C81F11CD66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7269B79-62C9-CA40-9FC3-DB8053214CD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="20740" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="94">
   <si>
     <t>no</t>
   </si>
@@ -366,7 +367,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -669,12 +670,15 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:J16"/>
+      <selection activeCell="A3" sqref="A3:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -729,7 +733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -758,7 +762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -787,7 +791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -816,7 +820,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -848,7 +852,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -880,7 +884,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -912,7 +916,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -944,7 +948,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -976,7 +980,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1008,7 +1012,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1040,7 +1044,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1072,7 +1076,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1104,7 +1108,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1136,7 +1140,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1177,13 +1181,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259796D9-C464-40B0-BF0F-842CBD8DD7CA}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +1219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1241,7 +1248,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -1270,7 +1277,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>7</v>
       </c>
@@ -1299,7 +1306,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1328,7 +1335,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1357,7 +1364,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10</v>
       </c>
@@ -1386,7 +1393,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>11</v>
       </c>
@@ -1415,7 +1422,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>12</v>
       </c>
@@ -1444,7 +1451,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>13</v>
       </c>
@@ -1473,7 +1480,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>14</v>
       </c>
@@ -1502,7 +1509,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>15</v>
       </c>
@@ -1529,6 +1536,137 @@
       </c>
       <c r="I12" t="s">
         <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE5C580-3FF5-B44C-B920-6934A2FC2436}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>290388</v>
+      </c>
+      <c r="H2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>195318</v>
+      </c>
+      <c r="H3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>268064</v>
+      </c>
+      <c r="H4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
